--- a/artfynd/A 13484-2022.xlsx
+++ b/artfynd/A 13484-2022.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>102897621</v>
+        <v>104025332</v>
       </c>
       <c r="B3" t="n">
         <v>78098</v>
@@ -838,7 +838,7 @@
         <v>7014859.024975056</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,22 +862,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,19 +892,23 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
+          <t>Johan Staaf</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2022</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102897617</v>
+        <v>104025311</v>
       </c>
       <c r="B4" t="n">
         <v>78072</v>
@@ -950,7 +954,7 @@
         <v>7014847.180208696</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -974,22 +978,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,15 +1008,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
+          <t>Johan Staaf</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2022</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1245,7 +1253,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102897629</v>
+        <v>104025346</v>
       </c>
       <c r="B7" t="n">
         <v>78570</v>
@@ -1291,7 +1299,7 @@
         <v>7015021.887801974</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1315,22 +1323,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1344,21 +1352,25 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
+          <t>Johan Staaf</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2022</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
